--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/15/seed4/result_data_KNN.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.188</v>
+        <v>16.553</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.608</v>
+        <v>-7.458</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -587,7 +587,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.678</v>
+        <v>-10.857</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.375999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.674000000000001</v>
+        <v>-7.745000000000002</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.312</v>
+        <v>16.131</v>
       </c>
     </row>
     <row r="16">
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.934</v>
+        <v>-11.887</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.834</v>
+        <v>-12.298</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.5</v>
+        <v>-7.633</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -893,10 +893,10 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.272</v>
+        <v>-13.181</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.758</v>
+        <v>-8.263</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.712000000000001</v>
+        <v>-7.292</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.518</v>
+        <v>17.091</v>
       </c>
     </row>
     <row r="34">
@@ -1029,13 +1029,13 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.834</v>
+        <v>-12.146</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.448</v>
+        <v>16.538</v>
       </c>
     </row>
     <row r="36">
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.129999999999999</v>
+        <v>-7.943000000000001</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,10 +1083,10 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.23</v>
+        <v>-7.593999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>16.61</v>
+        <v>16.697</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.544</v>
+        <v>16.962</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.92</v>
+        <v>16.799</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.776</v>
+        <v>16.347</v>
       </c>
     </row>
     <row r="48">
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.242000000000001</v>
+        <v>-8.175000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>16.798</v>
+        <v>16.724</v>
       </c>
     </row>
     <row r="52">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.725999999999999</v>
+        <v>-7.701000000000001</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.017999999999999</v>
+        <v>-7.918000000000001</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.51</v>
+        <v>16.522</v>
       </c>
     </row>
     <row r="58">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.884</v>
+        <v>17.731</v>
       </c>
     </row>
     <row r="64">
@@ -1607,10 +1607,10 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.808</v>
+        <v>-11.199</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.141999999999999</v>
+        <v>-7.219999999999999</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.928</v>
+        <v>-6.9</v>
       </c>
       <c r="E70" t="n">
-        <v>18.3</v>
+        <v>17.849</v>
       </c>
     </row>
     <row r="71">
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.864</v>
+        <v>-13.201</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.746</v>
+        <v>-12.577</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.231999999999999</v>
+        <v>-7.522</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.198</v>
+        <v>-11.991</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1845,10 +1845,10 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.282</v>
+        <v>-13.098</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.754</v>
+        <v>-8.414</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.484</v>
+        <v>16.416</v>
       </c>
     </row>
     <row r="89">
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.244</v>
+        <v>-11.642</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.772</v>
+        <v>16.954</v>
       </c>
     </row>
     <row r="100">
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.456</v>
+        <v>-7.662999999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
